--- a/ControlBook Mensal/clientes/MUNDIAL.xlsx
+++ b/ControlBook Mensal/clientes/MUNDIAL.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,130 +570,131 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>202302000689</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">    CRIAÇÃO/ALTERAÇÃO DE RAMAL MICROSOFT TEAMS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>17/02/2023 16:53</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>LEANDRO PAZIN</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>INCLUIR RAMAIS NO TEAMS</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>BOA TARDE! GOSTARIA DE AGENDAR COM O MARCELO HERMINIO PARA MIGRARMOS ALGUNS RAMAIS PARA O TEAMS NA PRÓXIMA QUARTA-FEIRA 22/02/23. TODOS SÃO DE GRAVATAÍ PREFIXO (3432-XXXX) LUCIANA SCHMIDT - 5405IVANES SOUTO - 5347 PEDRO JUNIOR - 5378 MARILENE SILVA - 5474 MORGANA AFONSO - 5307 ANDERSON SILVEIRA - 5379 ALINE VEIGA - 5365 DIANE MORAES - 5369 ATT,LEANDRO PAZIN</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>MUNDIAL</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>04:06:03</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>04:06:03</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/MUNDIAL.xlsx
+++ b/ControlBook Mensal/clientes/MUNDIAL.xlsx
@@ -61,13 +61,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,253 +449,253 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000689</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CRIAÇÃO/ALTERAÇÃO DE RAMAL MICROSOFT TEAMS</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 16:53</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>LEANDRO PAZIN</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>INCLUIR RAMAIS NO TEAMS</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE! GOSTARIA DE AGENDAR COM O MARCELO HERMINIO PARA MIGRARMOS ALGUNS RAMAIS PARA O TEAMS NA PRÓXIMA QUARTA-FEIRA 22/02/23. TODOS SÃO DE GRAVATAÍ PREFIXO (3432-XXXX) LUCIANA SCHMIDT - 5405IVANES SOUTO - 5347 PEDRO JUNIOR - 5378 MARILENE SILVA - 5474 MORGANA AFONSO - 5307 ANDERSON SILVEIRA - 5379 ALINE VEIGA - 5365 DIANE MORAES - 5369 ATT,LEANDRO PAZIN</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>MUNDIAL</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>04:06:03</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>04:06:03</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/MUNDIAL.xlsx
+++ b/ControlBook Mensal/clientes/MUNDIAL.xlsx
@@ -61,12 +61,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -454,248 +460,248 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000689</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CRIAÇÃO/ALTERAÇÃO DE RAMAL MICROSOFT TEAMS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>17/02/2023 16:53</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>LEANDRO PAZIN</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>INCLUIR RAMAIS NO TEAMS</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE! GOSTARIA DE AGENDAR COM O MARCELO HERMINIO PARA MIGRARMOS ALGUNS RAMAIS PARA O TEAMS NA PRÓXIMA QUARTA-FEIRA 22/02/23. TODOS SÃO DE GRAVATAÍ PREFIXO (3432-XXXX) LUCIANA SCHMIDT - 5405IVANES SOUTO - 5347 PEDRO JUNIOR - 5378 MARILENE SILVA - 5474 MORGANA AFONSO - 5307 ANDERSON SILVEIRA - 5379 ALINE VEIGA - 5365 DIANE MORAES - 5369 ATT,LEANDRO PAZIN</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>MUNDIAL</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>RIO GRANDE DO SUL</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>N2 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>04:06:03</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>04:06:03</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
